--- a/import/tank.xlsx
+++ b/import/tank.xlsx
@@ -24,10 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
   <si>
     <t>全台自用儲油槽統計資料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>縣市別</t>
@@ -61,39 +61,39 @@
   </si>
   <si>
     <t>儲槽數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>總容積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>品牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每月用量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加油頻率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目前折讓(中油牌價為準)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>業務員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最後更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -110,43 +110,43 @@
   </si>
   <si>
     <t>高雄市旗津區高雄貨櫃場第四貨櫃中心116號碼頭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市旗津區旗津一路54號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市旗津區南汕里北汕巷50-90號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市旗津區旗津一路40號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區中鋼路1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區鳳宮里中鋼路3號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區光和路68號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區亞太路10號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區東亞南路6號3樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區新生路999號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -171,7 +171,7 @@
       </rPr>
       <t>號</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -188,15 +188,15 @@
   </si>
   <si>
     <t>新北市板橋區僑中一街150號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新北市中和區錦和路201號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新北市八里區小八里坌地段中小段321地號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -213,7 +213,7 @@
   </si>
   <si>
     <t>桃園市楊梅區秀才路618號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -230,7 +230,7 @@
   </si>
   <si>
     <t>桃園市大園區埔心里航勤南路15號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -297,20 +297,7 @@
       </rPr>
       <t>號</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -375,35 +362,35 @@
   </si>
   <si>
     <t>臺北市大安區仁愛路四段10號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市文山區興隆路三段111號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市南港區同德路87號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市士林區雨聲街105號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市北投區振興街45號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市北投區立德路125號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市北投區關渡里知行路225巷12號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市信義區吳興街252號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -420,43 +407,43 @@
   </si>
   <si>
     <t>臺南市北區勝利路138號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市鼓山區中華一路976號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市苓雅區建軍路5號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺中市南屯區永春南路429號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新北市板橋區和平路16號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新北市三峽區介壽路一段155巷2弄1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桃園市桃園區興中街5號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桃園市大溪區中華路335號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桃園市大園區海口村155號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桃園市大園區中山南路395號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -470,31 +457,31 @@
       </rPr>
       <t>桃園市龍潭區中正路106號</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桃園市新屋區中山路361號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桃圜市觀音區中興路2號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新竹縣關西鎮中興路17號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新竹縣竹東鎮東寧路一段1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新竹縣湖口鄉中山路二段90號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新竹縣咢林郷富林路三段360號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -517,58 +504,58 @@
   </si>
   <si>
     <t>高雄市前鎮區大華六街1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市旗津區旗津一路67號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區東亞南路2-9號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市內湖區民權東路六段11巷59號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新北市萬里區八斗60號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺南市安南區本田街二段21號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新北市板橋區信義路83號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苗栗縣苑裡鎮玉田里國光巷35號</t>
   </si>
   <si>
     <t>臺北市松山區敦化北路100號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺北市松山區敦化北路340-17號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市小港區中山四路2號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>臺南市安平區運河路164號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市茄楚區民權路1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桃園市新屋區中山西路三段1160號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,14 +563,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -606,6 +585,35 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -619,13 +627,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
@@ -637,14 +638,6 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -673,12 +666,6 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -769,109 +756,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1191,11 +1178,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF18103-49E2-4D52-BCAB-A85CA93A5B51}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="39.75" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -1203,16 +1195,6 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="24">
       <c r="A2" s="3" t="s">
@@ -1271,14 +1253,6 @@
       <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="8" t="s">
@@ -1296,14 +1270,6 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="31.5">
       <c r="A5" s="8" t="s">
@@ -1321,14 +1287,6 @@
       <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="8" t="s">
@@ -1346,14 +1304,6 @@
       <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="12" t="s">
@@ -1371,14 +1321,6 @@
       <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="31.5">
       <c r="A8" s="8" t="s">
@@ -1396,14 +1338,6 @@
       <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="21">
       <c r="A9" s="8" t="s">
@@ -1421,14 +1355,6 @@
       <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="21">
       <c r="A10" s="8" t="s">
@@ -1446,14 +1372,6 @@
       <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="8" t="s">
@@ -1471,14 +1389,6 @@
       <c r="E11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="21">
       <c r="A12" s="8" t="s">
@@ -1496,14 +1406,6 @@
       <c r="E12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="49.5">
       <c r="A13" s="8" t="s">
@@ -1521,14 +1423,6 @@
       <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="21">
       <c r="A14" s="8" t="s">
@@ -1546,14 +1440,6 @@
       <c r="E14" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="8" t="s">
@@ -1571,14 +1457,6 @@
       <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="21">
       <c r="A16" s="8" t="s">
@@ -1596,16 +1474,8 @@
       <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="42">
+    </row>
+    <row r="17" spans="1:5" ht="42">
       <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
@@ -1621,16 +1491,8 @@
       <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="21">
+    </row>
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -1646,16 +1508,8 @@
       <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="31.5">
+    </row>
+    <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
@@ -1671,16 +1525,8 @@
       <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="66">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
@@ -1693,24 +1539,16 @@
       <c r="D20" s="11">
         <v>2751870</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5">
+      <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="31.5">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="C21" s="10">
         <v>234559</v>
@@ -1721,21 +1559,13 @@
       <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="31.5">
+    </row>
+    <row r="22" spans="1:5" ht="31.5">
       <c r="A22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>40</v>
       </c>
       <c r="C22" s="10">
         <v>201786</v>
@@ -1746,21 +1576,13 @@
       <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="31.5">
+    </row>
+    <row r="23" spans="1:5" ht="31.5">
       <c r="A23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="C23" s="10">
         <v>205378</v>
@@ -1771,21 +1593,13 @@
       <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="31.5">
+    </row>
+    <row r="24" spans="1:5" ht="31.5">
       <c r="A24" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="C24" s="27">
         <v>305014</v>
@@ -1796,21 +1610,13 @@
       <c r="E24" s="29">
         <v>2</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="31.5">
+    </row>
+    <row r="25" spans="1:5" ht="31.5">
       <c r="A25" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="27">
         <v>306364</v>
@@ -1821,21 +1627,13 @@
       <c r="E25" s="29">
         <v>1</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="21">
+    </row>
+    <row r="26" spans="1:5" ht="21">
       <c r="A26" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="27">
         <v>309137</v>
@@ -1846,21 +1644,13 @@
       <c r="E26" s="29">
         <v>2</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="21">
+    </row>
+    <row r="27" spans="1:5" ht="21">
       <c r="A27" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="27">
         <v>303605</v>
@@ -1871,21 +1661,13 @@
       <c r="E27" s="29">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="21">
+    </row>
+    <row r="28" spans="1:5" ht="21">
       <c r="A28" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="27">
         <v>301966</v>
@@ -1896,21 +1678,13 @@
       <c r="E28" s="29">
         <v>2</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="21">
+    </row>
+    <row r="29" spans="1:5" ht="21">
       <c r="A29" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="27">
         <v>298035</v>
@@ -1921,21 +1695,13 @@
       <c r="E29" s="29">
         <v>1</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" ht="31.5">
+    </row>
+    <row r="30" spans="1:5" ht="31.5">
       <c r="A30" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="11">
         <v>297014</v>
@@ -1946,21 +1712,13 @@
       <c r="E30" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="21">
+    </row>
+    <row r="31" spans="1:5" ht="21">
       <c r="A31" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="11">
         <v>306877</v>
@@ -1971,21 +1729,13 @@
       <c r="E31" s="11">
         <v>1</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" ht="21">
+    </row>
+    <row r="32" spans="1:5" ht="21">
       <c r="A32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="C32" s="10">
         <v>169258</v>
@@ -1996,21 +1746,13 @@
       <c r="E32" s="11">
         <v>3</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="31.5">
+    </row>
+    <row r="33" spans="1:5" ht="31.5">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="16">
         <v>177189</v>
@@ -2021,21 +1763,13 @@
       <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" ht="21">
+    </row>
+    <row r="34" spans="1:5" ht="21">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="10">
         <v>182354</v>
@@ -2046,21 +1780,13 @@
       <c r="E34" s="11">
         <v>1</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5">
+    </row>
+    <row r="35" spans="1:5" ht="31.5">
       <c r="A35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="11">
         <v>209342</v>
@@ -2071,21 +1797,13 @@
       <c r="E35" s="11">
         <v>1</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" ht="21">
+    </row>
+    <row r="36" spans="1:5" ht="21">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="10">
         <v>296377</v>
@@ -2096,21 +1814,13 @@
       <c r="E36" s="11">
         <v>1</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="31.5">
+    </row>
+    <row r="37" spans="1:5" ht="31.5">
       <c r="A37" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="11">
         <v>288160</v>
@@ -2121,21 +1831,13 @@
       <c r="E37" s="11">
         <v>1</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" ht="21">
+    </row>
+    <row r="38" spans="1:5" ht="21">
       <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="10">
         <v>282447</v>
@@ -2146,21 +1848,13 @@
       <c r="E38" s="11">
         <v>1</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" ht="21">
+    </row>
+    <row r="39" spans="1:5" ht="21">
       <c r="A39" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="32">
         <v>279440</v>
@@ -2171,21 +1865,13 @@
       <c r="E39" s="33">
         <v>1</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" ht="21">
+    </row>
+    <row r="40" spans="1:5" ht="21">
       <c r="A40" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="11">
         <v>274367</v>
@@ -2196,21 +1882,13 @@
       <c r="E40" s="11">
         <v>1</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="31.5">
+    </row>
+    <row r="41" spans="1:5" ht="31.5">
       <c r="A41" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="11">
         <v>270619</v>
@@ -2221,21 +1899,13 @@
       <c r="E41" s="11">
         <v>1</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" ht="49.5">
+    </row>
+    <row r="42" spans="1:5" ht="49.5">
       <c r="A42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="11">
         <v>271764</v>
@@ -2246,21 +1916,13 @@
       <c r="E42" s="11">
         <v>1</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" ht="21">
+    </row>
+    <row r="43" spans="1:5" ht="21">
       <c r="A43" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="11">
         <v>260348</v>
@@ -2271,21 +1933,13 @@
       <c r="E43" s="11">
         <v>1</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" ht="21">
+    </row>
+    <row r="44" spans="1:5" ht="21">
       <c r="A44" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="11">
         <v>258174</v>
@@ -2296,21 +1950,13 @@
       <c r="E44" s="11">
         <v>1</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" ht="21">
+    </row>
+    <row r="45" spans="1:5" ht="21">
       <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="11">
         <v>267881</v>
@@ -2321,21 +1967,13 @@
       <c r="E45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" ht="31.5">
+    </row>
+    <row r="46" spans="1:5" ht="31.5">
       <c r="A46" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="10">
         <v>259728</v>
@@ -2346,21 +1984,13 @@
       <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="31.5">
+    </row>
+    <row r="47" spans="1:5" ht="31.5">
       <c r="A47" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="10">
         <v>254398</v>
@@ -2371,21 +2001,13 @@
       <c r="E47" s="11">
         <v>1</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" ht="31.5">
+    </row>
+    <row r="48" spans="1:5" ht="31.5">
       <c r="A48" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="10">
         <v>257614</v>
@@ -2396,21 +2018,13 @@
       <c r="E48" s="11">
         <v>1</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" ht="21">
+    </row>
+    <row r="49" spans="1:5" ht="21">
       <c r="A49" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="C49" s="11">
         <v>218658</v>
@@ -2421,21 +2035,13 @@
       <c r="E49" s="11">
         <v>1</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" ht="31.5">
+    </row>
+    <row r="50" spans="1:5" ht="31.5">
       <c r="A50" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="10">
         <v>199979</v>
@@ -2446,21 +2052,13 @@
       <c r="E50" s="11">
         <v>1</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="21">
+    </row>
+    <row r="51" spans="1:5" ht="21">
       <c r="A51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="10">
         <v>177129</v>
@@ -2471,21 +2069,13 @@
       <c r="E51" s="11">
         <v>2</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" ht="21">
+    </row>
+    <row r="52" spans="1:5" ht="21">
       <c r="A52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="10">
         <v>178227</v>
@@ -2496,21 +2086,13 @@
       <c r="E52" s="11">
         <v>2</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="31.5">
+    </row>
+    <row r="53" spans="1:5" ht="31.5">
       <c r="A53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="10">
         <v>181077</v>
@@ -2521,21 +2103,13 @@
       <c r="E53" s="11">
         <v>3</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" ht="31.5">
+    </row>
+    <row r="54" spans="1:5" ht="31.5">
       <c r="A54" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="27">
         <v>308125</v>
@@ -2546,21 +2120,13 @@
       <c r="E54" s="29">
         <v>7</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="21">
+    </row>
+    <row r="55" spans="1:5" ht="21">
       <c r="A55" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="11">
         <v>301408</v>
@@ -2571,21 +2137,13 @@
       <c r="E55" s="11">
         <v>6</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" ht="31.5">
+    </row>
+    <row r="56" spans="1:5" ht="31.5">
       <c r="A56" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="10">
         <v>162440</v>
@@ -2596,21 +2154,13 @@
       <c r="E56" s="11">
         <v>5</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" ht="21">
+    </row>
+    <row r="57" spans="1:5" ht="21">
       <c r="A57" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="10">
         <v>296205</v>
@@ -2621,21 +2171,13 @@
       <c r="E57" s="11">
         <v>9</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" ht="31.5">
+    </row>
+    <row r="58" spans="1:5" ht="31.5">
       <c r="A58" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="11">
         <v>217645</v>
@@ -2646,21 +2188,13 @@
       <c r="E58" s="11">
         <v>1</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="31.5">
+    </row>
+    <row r="59" spans="1:5" ht="31.5">
       <c r="A59" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="27">
         <v>305312</v>
@@ -2671,21 +2205,13 @@
       <c r="E59" s="29">
         <v>1</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" ht="31.5">
+    </row>
+    <row r="60" spans="1:5" ht="31.5">
       <c r="A60" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="27">
         <v>305300</v>
@@ -2696,21 +2222,13 @@
       <c r="E60" s="29">
         <v>1</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" ht="21">
+    </row>
+    <row r="61" spans="1:5" ht="21">
       <c r="A61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="10">
         <v>182136</v>
@@ -2721,21 +2239,13 @@
       <c r="E61" s="11">
         <v>2</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" ht="31.5">
+    </row>
+    <row r="62" spans="1:5" ht="31.5">
       <c r="A62" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="10">
         <v>162440</v>
@@ -2746,21 +2256,13 @@
       <c r="E62" s="11">
         <v>5</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" ht="21">
+    </row>
+    <row r="63" spans="1:5" ht="21">
       <c r="A63" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="10">
         <v>296205</v>
@@ -2771,21 +2273,13 @@
       <c r="E63" s="11">
         <v>9</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" ht="21">
+    </row>
+    <row r="64" spans="1:5" ht="21">
       <c r="A64" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="10">
         <v>163513</v>
@@ -2796,21 +2290,13 @@
       <c r="E64" s="11">
         <v>1</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" ht="21">
+    </row>
+    <row r="65" spans="1:5" ht="21">
       <c r="A65" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="16">
         <v>167714</v>
@@ -2821,21 +2307,13 @@
       <c r="E65" s="11">
         <v>1</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" ht="31.5">
+    </row>
+    <row r="66" spans="1:5" ht="31.5">
       <c r="A66" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="11">
         <v>251803</v>
@@ -2846,20 +2324,13 @@
       <c r="E66" s="11">
         <v>1</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/import/tank.xlsx
+++ b/import/tank.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>全台自用儲油槽統計資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,104 +762,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1176,1152 +1176,1101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF18103-49E2-4D52-BCAB-A85CA93A5B51}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="39.75" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="39.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="24">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>178321</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>2496484</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>177958</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>2496819</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>176340</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2500020</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>178693</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2495986</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="21">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>183834</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2495659</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>182046</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>2495263</v>
       </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="21">
-      <c r="A9" s="8" t="s">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>181901</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>2495352</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="21">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9">
+        <v>181078</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2496055</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9">
+        <v>180551</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2495866</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9">
+        <v>179928</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2494435</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
-        <v>179398</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2496155</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="C13" s="9">
+        <v>180389</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2496056</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9">
+        <v>294823</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2767272</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9">
+        <v>299610</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2764810</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="10">
+        <v>289425</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2784358</v>
+      </c>
+      <c r="E16" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.5">
-      <c r="A11" s="8" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="10">
+        <v>263312</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2753763</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10">
+        <v>274886</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2775341</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9">
+        <v>253785</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2751870</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9">
+        <v>234559</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2722966</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9">
+        <v>201786</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2683513</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="9">
+        <v>205378</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2664742</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="26">
+        <v>305014</v>
+      </c>
+      <c r="D23" s="27">
+        <v>2770029</v>
+      </c>
+      <c r="E23" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="26">
+        <v>306364</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2765953</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="26">
+        <v>309137</v>
+      </c>
+      <c r="D25" s="27">
+        <v>2771060</v>
+      </c>
+      <c r="E25" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="26">
+        <v>303605</v>
+      </c>
+      <c r="D26" s="27">
+        <v>2777531</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="26">
+        <v>301966</v>
+      </c>
+      <c r="D27" s="27">
+        <v>2778965</v>
+      </c>
+      <c r="E27" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="26">
+        <v>298035</v>
+      </c>
+      <c r="D28" s="27">
+        <v>2779367</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="10">
+        <v>297014</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2779182</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="10">
+        <v>306877</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2768842</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="9">
+        <v>169258</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2544951</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10">
-        <v>181078</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2496055</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="B32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="15">
+        <v>177189</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2506899</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="9">
+        <v>182354</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2503018</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="10">
+        <v>209342</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2670482</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="9">
+        <v>296377</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2765225</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="10">
+        <v>288160</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2758174</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="9">
+        <v>282447</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2763726</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="31">
+        <v>279440</v>
+      </c>
+      <c r="D38" s="31">
+        <v>2752161</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="10">
+        <v>274367</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2778036</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="10">
+        <v>270619</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2772145</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="10">
+        <v>271764</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2751130</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="10">
+        <v>260348</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2758248</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="10">
+        <v>258174</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2769951</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="10">
+        <v>267881</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2742807</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="9">
+        <v>259728</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2735029</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="9">
+        <v>254398</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2754828</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="9">
+        <v>257614</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2741230</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="10">
+        <v>218658</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2644469</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="9">
+        <v>199979</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2682445</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="9">
+        <v>177129</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2500818</v>
+      </c>
+      <c r="E50" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="9">
+        <v>178227</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2496646</v>
+      </c>
+      <c r="E51" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="9">
+        <v>181077</v>
+      </c>
+      <c r="D52" s="10">
+        <v>2496014</v>
+      </c>
+      <c r="E52" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21">
-      <c r="A12" s="8" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="26">
+        <v>308125</v>
+      </c>
+      <c r="D53" s="27">
+        <v>2773436</v>
+      </c>
+      <c r="E53" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="10">
+        <v>301408</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2770843</v>
+      </c>
+      <c r="E54" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="9">
+        <v>162440</v>
+      </c>
+      <c r="D55" s="10">
+        <v>2548111</v>
+      </c>
+      <c r="E55" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="9">
+        <v>296205</v>
+      </c>
+      <c r="D56" s="10">
+        <v>2765105</v>
+      </c>
+      <c r="E56" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="10">
+        <v>217645</v>
+      </c>
+      <c r="D57" s="10">
+        <v>2698060</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="26">
+        <v>305312</v>
+      </c>
+      <c r="D58" s="27">
+        <v>2771705</v>
+      </c>
+      <c r="E58" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="26">
+        <v>305300</v>
+      </c>
+      <c r="D59" s="27">
+        <v>2773050</v>
+      </c>
+      <c r="E59" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
-        <v>180551</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2495866</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="49.5">
-      <c r="A13" s="8" t="s">
+      <c r="B60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="9">
+        <v>182136</v>
+      </c>
+      <c r="D60" s="10">
+        <v>2496974</v>
+      </c>
+      <c r="E60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="9">
+        <v>163513</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2544149</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="10">
-        <v>179928</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2494435</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="21">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="10">
-        <v>180389</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2496056</v>
-      </c>
-      <c r="E14" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="31.5">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="10">
-        <v>294823</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2767272</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="21">
-      <c r="A16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="10">
-        <v>299610</v>
-      </c>
-      <c r="D16" s="16">
-        <v>2764810</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42">
-      <c r="A17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="11">
-        <v>289425</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2784358</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21">
-      <c r="A18" s="8" t="s">
+      <c r="B62" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="15">
+        <v>167714</v>
+      </c>
+      <c r="D62" s="10">
+        <v>2529816</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="11">
-        <v>263312</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2753763</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11">
-        <v>274886</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2775341</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="10">
-        <v>253785</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2751870</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.5">
-      <c r="A21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="10">
-        <v>234559</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2722966</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.5">
-      <c r="A22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="10">
-        <v>201786</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2683513</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5">
-      <c r="A23" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10">
-        <v>205378</v>
-      </c>
-      <c r="D23" s="16">
-        <v>2664742</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="31.5">
-      <c r="A24" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="27">
-        <v>305014</v>
-      </c>
-      <c r="D24" s="28">
-        <v>2770029</v>
-      </c>
-      <c r="E24" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.5">
-      <c r="A25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="27">
-        <v>306364</v>
-      </c>
-      <c r="D25" s="28">
-        <v>2765953</v>
-      </c>
-      <c r="E25" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21">
-      <c r="A26" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="27">
-        <v>309137</v>
-      </c>
-      <c r="D26" s="28">
-        <v>2771060</v>
-      </c>
-      <c r="E26" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21">
-      <c r="A27" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="27">
-        <v>303605</v>
-      </c>
-      <c r="D27" s="28">
-        <v>2777531</v>
-      </c>
-      <c r="E27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21">
-      <c r="A28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="27">
-        <v>301966</v>
-      </c>
-      <c r="D28" s="28">
-        <v>2778965</v>
-      </c>
-      <c r="E28" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21">
-      <c r="A29" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="27">
-        <v>298035</v>
-      </c>
-      <c r="D29" s="28">
-        <v>2779367</v>
-      </c>
-      <c r="E29" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.5">
-      <c r="A30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="11">
-        <v>297014</v>
-      </c>
-      <c r="D30" s="11">
-        <v>2779182</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21">
-      <c r="A31" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="11">
-        <v>306877</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2768842</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21">
-      <c r="A32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="10">
-        <v>169258</v>
-      </c>
-      <c r="D32" s="11">
-        <v>2544951</v>
-      </c>
-      <c r="E32" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31.5">
-      <c r="A33" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="16">
-        <v>177189</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2506899</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="21">
-      <c r="A34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="10">
-        <v>182354</v>
-      </c>
-      <c r="D34" s="11">
-        <v>2503018</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="31.5">
-      <c r="A35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="11">
-        <v>209342</v>
-      </c>
-      <c r="D35" s="11">
-        <v>2670482</v>
-      </c>
-      <c r="E35" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="21">
-      <c r="A36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="10">
-        <v>296377</v>
-      </c>
-      <c r="D36" s="11">
-        <v>2765225</v>
-      </c>
-      <c r="E36" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="31.5">
-      <c r="A37" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="11">
-        <v>288160</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2758174</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="21">
-      <c r="A38" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="10">
-        <v>282447</v>
-      </c>
-      <c r="D38" s="11">
-        <v>2763726</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="21">
-      <c r="A39" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="32">
-        <v>279440</v>
-      </c>
-      <c r="D39" s="32">
-        <v>2752161</v>
-      </c>
-      <c r="E39" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="21">
-      <c r="A40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="11">
-        <v>274367</v>
-      </c>
-      <c r="D40" s="11">
-        <v>2778036</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31.5">
-      <c r="A41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="11">
-        <v>270619</v>
-      </c>
-      <c r="D41" s="11">
-        <v>2772145</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="49.5">
-      <c r="A42" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="11">
-        <v>271764</v>
-      </c>
-      <c r="D42" s="11">
-        <v>2751130</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="21">
-      <c r="A43" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="11">
-        <v>260348</v>
-      </c>
-      <c r="D43" s="11">
-        <v>2758248</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="21">
-      <c r="A44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="11">
-        <v>258174</v>
-      </c>
-      <c r="D44" s="16">
-        <v>2769951</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="21">
-      <c r="A45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="11">
-        <v>267881</v>
-      </c>
-      <c r="D45" s="16">
-        <v>2742807</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="31.5">
-      <c r="A46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="10">
-        <v>259728</v>
-      </c>
-      <c r="D46" s="11">
-        <v>2735029</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="31.5">
-      <c r="A47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="10">
-        <v>254398</v>
-      </c>
-      <c r="D47" s="11">
-        <v>2754828</v>
-      </c>
-      <c r="E47" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="31.5">
-      <c r="A48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="10">
-        <v>257614</v>
-      </c>
-      <c r="D48" s="11">
-        <v>2741230</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="21">
-      <c r="A49" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="11">
-        <v>218658</v>
-      </c>
-      <c r="D49" s="11">
-        <v>2644469</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="31.5">
-      <c r="A50" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="10">
-        <v>199979</v>
-      </c>
-      <c r="D50" s="11">
-        <v>2682445</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="21">
-      <c r="A51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="10">
-        <v>177129</v>
-      </c>
-      <c r="D51" s="11">
-        <v>2500818</v>
-      </c>
-      <c r="E51" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="21">
-      <c r="A52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="10">
-        <v>178227</v>
-      </c>
-      <c r="D52" s="11">
-        <v>2496646</v>
-      </c>
-      <c r="E52" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="31.5">
-      <c r="A53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="10">
-        <v>181077</v>
-      </c>
-      <c r="D53" s="11">
-        <v>2496014</v>
-      </c>
-      <c r="E53" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="31.5">
-      <c r="A54" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="27">
-        <v>308125</v>
-      </c>
-      <c r="D54" s="28">
-        <v>2773436</v>
-      </c>
-      <c r="E54" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="21">
-      <c r="A55" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="11">
-        <v>301408</v>
-      </c>
-      <c r="D55" s="10">
-        <v>2770843</v>
-      </c>
-      <c r="E55" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="31.5">
-      <c r="A56" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="10">
-        <v>162440</v>
-      </c>
-      <c r="D56" s="11">
-        <v>2548111</v>
-      </c>
-      <c r="E56" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="21">
-      <c r="A57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="10">
-        <v>296205</v>
-      </c>
-      <c r="D57" s="11">
-        <v>2765105</v>
-      </c>
-      <c r="E57" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="31.5">
-      <c r="A58" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="11">
-        <v>217645</v>
-      </c>
-      <c r="D58" s="11">
-        <v>2698060</v>
-      </c>
-      <c r="E58" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="31.5">
-      <c r="A59" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="27">
-        <v>305312</v>
-      </c>
-      <c r="D59" s="28">
-        <v>2771705</v>
-      </c>
-      <c r="E59" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="31.5">
-      <c r="A60" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="27">
-        <v>305300</v>
-      </c>
-      <c r="D60" s="28">
-        <v>2773050</v>
-      </c>
-      <c r="E60" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="21">
-      <c r="A61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="10">
-        <v>182136</v>
-      </c>
-      <c r="D61" s="11">
-        <v>2496974</v>
-      </c>
-      <c r="E61" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="31.5">
-      <c r="A62" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="10">
-        <v>162440</v>
-      </c>
-      <c r="D62" s="11">
-        <v>2548111</v>
-      </c>
-      <c r="E62" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21">
-      <c r="A63" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>78</v>
+      <c r="B63" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C63" s="10">
-        <v>296205</v>
-      </c>
-      <c r="D63" s="11">
-        <v>2765105</v>
-      </c>
-      <c r="E63" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="21">
-      <c r="A64" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="10">
-        <v>163513</v>
-      </c>
-      <c r="D64" s="11">
-        <v>2544149</v>
-      </c>
-      <c r="E64" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="21">
-      <c r="A65" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="16">
-        <v>167714</v>
-      </c>
-      <c r="D65" s="11">
-        <v>2529816</v>
-      </c>
-      <c r="E65" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="31.5">
-      <c r="A66" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="11">
         <v>251803</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D63" s="10">
         <v>2764508</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E63" s="10">
         <v>1</v>
       </c>
     </row>

--- a/import/tank.xlsx
+++ b/import/tank.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\gb\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\gb\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{1B2FABFC-4B18-4B75-B371-3CCE3A1F42C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11508" xr2:uid="{1B2FABFC-4B18-4B75-B371-3CCE3A1F42C3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新竹縣咢林郷富林路三段360號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -555,6 +551,10 @@
   </si>
   <si>
     <t>桃園市新屋區中山西路三段1160號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹縣富林路三段360號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,14 +1178,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF18103-49E2-4D52-BCAB-A85CA93A5B51}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="39.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.734375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1196,7 +1196,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:13" ht="24">
+    <row r="2" spans="1:13" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C47" s="9">
         <v>257614</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="C48" s="10">
         <v>218658</v>
@@ -2024,7 +2024,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="9">
         <v>199979</v>
@@ -2041,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="9">
         <v>177129</v>
@@ -2058,7 +2058,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="9">
         <v>178227</v>
@@ -2075,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="9">
         <v>181077</v>
@@ -2092,7 +2092,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="26">
         <v>308125</v>
@@ -2109,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="10">
         <v>301408</v>
@@ -2126,7 +2126,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="9">
         <v>162440</v>
@@ -2143,7 +2143,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="9">
         <v>296205</v>
@@ -2160,7 +2160,7 @@
         <v>36</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="10">
         <v>217645</v>
@@ -2177,7 +2177,7 @@
         <v>42</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="26">
         <v>305312</v>
@@ -2194,7 +2194,7 @@
         <v>42</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="26">
         <v>305300</v>
@@ -2211,7 +2211,7 @@
         <v>14</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="9">
         <v>182136</v>
@@ -2228,7 +2228,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="9">
         <v>163513</v>
@@ -2245,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="15">
         <v>167714</v>
@@ -2262,7 +2262,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="10">
         <v>251803</v>
